--- a/multiwell_plates.xlsx
+++ b/multiwell_plates.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/turnbaughlab/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FF8004-F7A4-7947-B406-A53705EBCF54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC05D0B-A525-7547-8A05-08A054381BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="96" sheetId="3" r:id="rId1"/>
     <sheet name="384" sheetId="1" r:id="rId2"/>
-    <sheet name="96_to_384" sheetId="5" r:id="rId3"/>
+    <sheet name="96_to_384_OT2" sheetId="5" r:id="rId3"/>
+    <sheet name="96_to_384_Integra" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="121">
   <si>
     <t>A</t>
   </si>
@@ -378,13 +384,34 @@
   </si>
   <si>
     <t>H12</t>
+  </si>
+  <si>
+    <t>STD1</t>
+  </si>
+  <si>
+    <t>STD2</t>
+  </si>
+  <si>
+    <t>STD3</t>
+  </si>
+  <si>
+    <t>STD4</t>
+  </si>
+  <si>
+    <t>STD5</t>
+  </si>
+  <si>
+    <t>STD6</t>
+  </si>
+  <si>
+    <t>STD7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,13 +479,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -598,11 +643,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,6 +657,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,16 +1119,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6435E486-62A7-C143-8EB3-814BFC936DAA}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView view="pageLayout" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="13" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1116,331 +1169,331 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="53" customHeight="1">
+    <row r="2" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="53" customHeight="1">
+    <row r="3" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="53" customHeight="1">
+    <row r="4" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="53" customHeight="1">
+    <row r="5" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="53" customHeight="1">
+    <row r="6" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="53" customHeight="1">
+    <row r="7" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="53" customHeight="1">
+    <row r="8" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="53" customHeight="1">
+    <row r="9" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1463,13 +1516,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="25" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24">
+    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1546,469 +1599,469 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="31" customHeight="1">
+    <row r="2" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" ht="31" customHeight="1">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" ht="31" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" ht="31" customHeight="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" ht="31" customHeight="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" ht="31" customHeight="1">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" ht="31" customHeight="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" ht="31" customHeight="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="31" customHeight="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" ht="31" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" ht="31" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" ht="31" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" ht="31" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" ht="31" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" ht="31" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" ht="31" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2028,13 +2081,13 @@
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="25" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24">
+    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2111,1337 +2164,1337 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="31" customHeight="1">
+    <row r="2" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="6" t="str">
         <f>'96'!B2:M2</f>
         <v>A1</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="6" t="str">
         <f>'96'!C2:N2</f>
         <v>A2</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="6" t="str">
         <f>'96'!D2:O2</f>
         <v>A3</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="6" t="str">
         <f>'96'!E2:P2</f>
         <v>A4</v>
       </c>
-      <c r="F2" s="7" t="str">
+      <c r="F2" s="6" t="str">
         <f>'96'!F2:Q2</f>
         <v>A5</v>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="6" t="str">
         <f>'96'!G2:R2</f>
         <v>A6</v>
       </c>
-      <c r="H2" s="7" t="str">
+      <c r="H2" s="6" t="str">
         <f>'96'!H2:S2</f>
         <v>A7</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="6" t="str">
         <f>'96'!I2:T2</f>
         <v>A8</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="6" t="str">
         <f>'96'!J2:U2</f>
         <v>A9</v>
       </c>
-      <c r="K2" s="7" t="str">
+      <c r="K2" s="6" t="str">
         <f>'96'!K2:V2</f>
         <v>A10</v>
       </c>
-      <c r="L2" s="7" t="str">
+      <c r="L2" s="6" t="str">
         <f>'96'!L2:W2</f>
         <v>A11</v>
       </c>
-      <c r="M2" s="7" t="str">
+      <c r="M2" s="6" t="str">
         <f>'96'!M2:X2</f>
         <v>A12</v>
       </c>
-      <c r="N2" s="7" t="str">
+      <c r="N2" s="6" t="str">
         <f>B2</f>
         <v>A1</v>
       </c>
-      <c r="O2" s="7" t="str">
+      <c r="O2" s="6" t="str">
         <f t="shared" ref="O2:Y2" si="0">C2</f>
         <v>A2</v>
       </c>
-      <c r="P2" s="7" t="str">
+      <c r="P2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A3</v>
       </c>
-      <c r="Q2" s="7" t="str">
+      <c r="Q2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A4</v>
       </c>
-      <c r="R2" s="7" t="str">
+      <c r="R2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A5</v>
       </c>
-      <c r="S2" s="7" t="str">
+      <c r="S2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A6</v>
       </c>
-      <c r="T2" s="7" t="str">
+      <c r="T2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A7</v>
       </c>
-      <c r="U2" s="7" t="str">
+      <c r="U2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A8</v>
       </c>
-      <c r="V2" s="7" t="str">
+      <c r="V2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A9</v>
       </c>
-      <c r="W2" s="7" t="str">
+      <c r="W2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A10</v>
       </c>
-      <c r="X2" s="7" t="str">
+      <c r="X2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A11</v>
       </c>
-      <c r="Y2" s="7" t="str">
+      <c r="Y2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>A12</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="31" customHeight="1">
+    <row r="3" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="6" t="str">
         <f>B2</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:M3" si="1">C2</f>
         <v>A2</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A3</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A4</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A5</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A6</v>
       </c>
-      <c r="H3" s="7" t="str">
+      <c r="H3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A7</v>
       </c>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A8</v>
       </c>
-      <c r="J3" s="7" t="str">
+      <c r="J3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A9</v>
       </c>
-      <c r="K3" s="7" t="str">
+      <c r="K3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A10</v>
       </c>
-      <c r="L3" s="7" t="str">
+      <c r="L3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A11</v>
       </c>
-      <c r="M3" s="7" t="str">
+      <c r="M3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A12</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="31" customHeight="1">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="6" t="str">
         <f>'96'!B3</f>
         <v>B1</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="6" t="str">
         <f>'96'!C3</f>
         <v>B2</v>
       </c>
-      <c r="D4" s="7" t="str">
+      <c r="D4" s="6" t="str">
         <f>'96'!D3</f>
         <v>B3</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="6" t="str">
         <f>'96'!E3</f>
         <v>B4</v>
       </c>
-      <c r="F4" s="7" t="str">
+      <c r="F4" s="6" t="str">
         <f>'96'!F3</f>
         <v>B5</v>
       </c>
-      <c r="G4" s="7" t="str">
+      <c r="G4" s="6" t="str">
         <f>'96'!G3</f>
         <v>B6</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="6" t="str">
         <f>'96'!H3</f>
         <v>B7</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="6" t="str">
         <f>'96'!I3</f>
         <v>B8</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="J4" s="6" t="str">
         <f>'96'!J3</f>
         <v>B9</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="K4" s="6" t="str">
         <f>'96'!K3</f>
         <v>B10</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="L4" s="6" t="str">
         <f>'96'!L3</f>
         <v>B11</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="M4" s="6" t="str">
         <f>'96'!M3</f>
         <v>B12</v>
       </c>
-      <c r="N4" s="7" t="str">
+      <c r="N4" s="6" t="str">
         <f>B4</f>
         <v>B1</v>
       </c>
-      <c r="O4" s="7" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" ref="O4:Y4" si="2">C4</f>
         <v>B2</v>
       </c>
-      <c r="P4" s="7" t="str">
+      <c r="P4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B3</v>
       </c>
-      <c r="Q4" s="7" t="str">
+      <c r="Q4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B4</v>
       </c>
-      <c r="R4" s="7" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B5</v>
       </c>
-      <c r="S4" s="7" t="str">
+      <c r="S4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B6</v>
       </c>
-      <c r="T4" s="7" t="str">
+      <c r="T4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B7</v>
       </c>
-      <c r="U4" s="7" t="str">
+      <c r="U4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B8</v>
       </c>
-      <c r="V4" s="7" t="str">
+      <c r="V4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B9</v>
       </c>
-      <c r="W4" s="7" t="str">
+      <c r="W4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B10</v>
       </c>
-      <c r="X4" s="7" t="str">
+      <c r="X4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B11</v>
       </c>
-      <c r="Y4" s="7" t="str">
+      <c r="Y4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>B12</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="31" customHeight="1">
+    <row r="5" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="6" t="str">
         <f>B4</f>
         <v>B1</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="6" t="str">
         <f t="shared" ref="C5:M5" si="3">C4</f>
         <v>B2</v>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B3</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B4</v>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B5</v>
       </c>
-      <c r="G5" s="7" t="str">
+      <c r="G5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B6</v>
       </c>
-      <c r="H5" s="7" t="str">
+      <c r="H5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B7</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B8</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="J5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B9</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="K5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B10</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="L5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B11</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="M5" s="6" t="str">
         <f t="shared" si="3"/>
         <v>B12</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" ht="31" customHeight="1">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="6" t="str">
         <f>'96'!B4</f>
         <v>C1</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="6" t="str">
         <f>'96'!C4</f>
         <v>C2</v>
       </c>
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="6" t="str">
         <f>'96'!D4</f>
         <v>C3</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="6" t="str">
         <f>'96'!E4</f>
         <v>C4</v>
       </c>
-      <c r="F6" s="7" t="str">
+      <c r="F6" s="6" t="str">
         <f>'96'!F4</f>
         <v>C5</v>
       </c>
-      <c r="G6" s="7" t="str">
+      <c r="G6" s="6" t="str">
         <f>'96'!G4</f>
         <v>C6</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="H6" s="6" t="str">
         <f>'96'!H4</f>
         <v>C7</v>
       </c>
-      <c r="I6" s="7" t="str">
+      <c r="I6" s="6" t="str">
         <f>'96'!I4</f>
         <v>C8</v>
       </c>
-      <c r="J6" s="7" t="str">
+      <c r="J6" s="6" t="str">
         <f>'96'!J4</f>
         <v>C9</v>
       </c>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="6" t="str">
         <f>'96'!K4</f>
         <v>C10</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="L6" s="6" t="str">
         <f>'96'!L4</f>
         <v>C11</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="M6" s="6" t="str">
         <f>'96'!M4</f>
         <v>C12</v>
       </c>
-      <c r="N6" s="7" t="str">
+      <c r="N6" s="6" t="str">
         <f>B6</f>
         <v>C1</v>
       </c>
-      <c r="O6" s="7" t="str">
+      <c r="O6" s="6" t="str">
         <f t="shared" ref="O6:Y6" si="4">C6</f>
         <v>C2</v>
       </c>
-      <c r="P6" s="7" t="str">
+      <c r="P6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C3</v>
       </c>
-      <c r="Q6" s="7" t="str">
+      <c r="Q6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C4</v>
       </c>
-      <c r="R6" s="7" t="str">
+      <c r="R6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C5</v>
       </c>
-      <c r="S6" s="7" t="str">
+      <c r="S6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C6</v>
       </c>
-      <c r="T6" s="7" t="str">
+      <c r="T6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C7</v>
       </c>
-      <c r="U6" s="7" t="str">
+      <c r="U6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C8</v>
       </c>
-      <c r="V6" s="7" t="str">
+      <c r="V6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C9</v>
       </c>
-      <c r="W6" s="7" t="str">
+      <c r="W6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C10</v>
       </c>
-      <c r="X6" s="7" t="str">
+      <c r="X6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C11</v>
       </c>
-      <c r="Y6" s="7" t="str">
+      <c r="Y6" s="6" t="str">
         <f t="shared" si="4"/>
         <v>C12</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="31" customHeight="1">
+    <row r="7" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="6" t="str">
         <f>B6</f>
         <v>C1</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="6" t="str">
         <f t="shared" ref="C7:M7" si="5">C6</f>
         <v>C2</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C3</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C4</v>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="F7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C5</v>
       </c>
-      <c r="G7" s="7" t="str">
+      <c r="G7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C6</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C7</v>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C8</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="J7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C9</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="K7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C10</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="L7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C11</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="M7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>C12</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" ht="31" customHeight="1">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="6" t="str">
         <f>'96'!B5</f>
         <v>D1</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="6" t="str">
         <f>'96'!C5</f>
         <v>D2</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="6" t="str">
         <f>'96'!D5</f>
         <v>D3</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="6" t="str">
         <f>'96'!E5</f>
         <v>D4</v>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="6" t="str">
         <f>'96'!F5</f>
         <v>D5</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="6" t="str">
         <f>'96'!G5</f>
         <v>D6</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="6" t="str">
         <f>'96'!H5</f>
         <v>D7</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="6" t="str">
         <f>'96'!I5</f>
         <v>D8</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="J8" s="6" t="str">
         <f>'96'!J5</f>
         <v>D9</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="K8" s="6" t="str">
         <f>'96'!K5</f>
         <v>D10</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="L8" s="6" t="str">
         <f>'96'!L5</f>
         <v>D11</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="M8" s="6" t="str">
         <f>'96'!M5</f>
         <v>D12</v>
       </c>
-      <c r="N8" s="7" t="str">
+      <c r="N8" s="6" t="str">
         <f>B8</f>
         <v>D1</v>
       </c>
-      <c r="O8" s="7" t="str">
+      <c r="O8" s="6" t="str">
         <f t="shared" ref="O8:Y8" si="6">C8</f>
         <v>D2</v>
       </c>
-      <c r="P8" s="7" t="str">
+      <c r="P8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D3</v>
       </c>
-      <c r="Q8" s="7" t="str">
+      <c r="Q8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D4</v>
       </c>
-      <c r="R8" s="7" t="str">
+      <c r="R8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D5</v>
       </c>
-      <c r="S8" s="7" t="str">
+      <c r="S8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D6</v>
       </c>
-      <c r="T8" s="7" t="str">
+      <c r="T8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D7</v>
       </c>
-      <c r="U8" s="7" t="str">
+      <c r="U8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D8</v>
       </c>
-      <c r="V8" s="7" t="str">
+      <c r="V8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D9</v>
       </c>
-      <c r="W8" s="7" t="str">
+      <c r="W8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D10</v>
       </c>
-      <c r="X8" s="7" t="str">
+      <c r="X8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D11</v>
       </c>
-      <c r="Y8" s="7" t="str">
+      <c r="Y8" s="6" t="str">
         <f t="shared" si="6"/>
         <v>D12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="31" customHeight="1">
+    <row r="9" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="6" t="str">
         <f>B8</f>
         <v>D1</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="6" t="str">
         <f t="shared" ref="C9:M9" si="7">C8</f>
         <v>D2</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D3</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D4</v>
       </c>
-      <c r="F9" s="7" t="str">
+      <c r="F9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D5</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="G9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D6</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D7</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D8</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="J9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D9</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="K9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D10</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="L9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D11</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="M9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D12</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" ht="31" customHeight="1">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="6" t="str">
         <f>'96'!B6</f>
         <v>E1</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="6" t="str">
         <f>'96'!C6</f>
         <v>E2</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="6" t="str">
         <f>'96'!D6</f>
         <v>E3</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="6" t="str">
         <f>'96'!E6</f>
         <v>E4</v>
       </c>
-      <c r="F10" s="7" t="str">
+      <c r="F10" s="6" t="str">
         <f>'96'!F6</f>
         <v>E5</v>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="G10" s="6" t="str">
         <f>'96'!G6</f>
         <v>E6</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="6" t="str">
         <f>'96'!H6</f>
         <v>E7</v>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="6" t="str">
         <f>'96'!I6</f>
         <v>E8</v>
       </c>
-      <c r="J10" s="7" t="str">
+      <c r="J10" s="6" t="str">
         <f>'96'!J6</f>
         <v>E9</v>
       </c>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="6" t="str">
         <f>'96'!K6</f>
         <v>E10</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="L10" s="6" t="str">
         <f>'96'!L6</f>
         <v>E11</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="M10" s="6" t="str">
         <f>'96'!M6</f>
         <v>E12</v>
       </c>
-      <c r="N10" s="7" t="str">
+      <c r="N10" s="6" t="str">
         <f>B10</f>
         <v>E1</v>
       </c>
-      <c r="O10" s="7" t="str">
+      <c r="O10" s="6" t="str">
         <f t="shared" ref="O10:Y10" si="8">C10</f>
         <v>E2</v>
       </c>
-      <c r="P10" s="7" t="str">
+      <c r="P10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E3</v>
       </c>
-      <c r="Q10" s="7" t="str">
+      <c r="Q10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E4</v>
       </c>
-      <c r="R10" s="7" t="str">
+      <c r="R10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E5</v>
       </c>
-      <c r="S10" s="7" t="str">
+      <c r="S10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E6</v>
       </c>
-      <c r="T10" s="7" t="str">
+      <c r="T10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E7</v>
       </c>
-      <c r="U10" s="7" t="str">
+      <c r="U10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E8</v>
       </c>
-      <c r="V10" s="7" t="str">
+      <c r="V10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E9</v>
       </c>
-      <c r="W10" s="7" t="str">
+      <c r="W10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E10</v>
       </c>
-      <c r="X10" s="7" t="str">
+      <c r="X10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E11</v>
       </c>
-      <c r="Y10" s="7" t="str">
+      <c r="Y10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>E12</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="31" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="6" t="str">
         <f>B10</f>
         <v>E1</v>
       </c>
-      <c r="C11" s="7" t="str">
+      <c r="C11" s="6" t="str">
         <f t="shared" ref="C11:M11" si="9">C10</f>
         <v>E2</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E3</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E4</v>
       </c>
-      <c r="F11" s="7" t="str">
+      <c r="F11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E5</v>
       </c>
-      <c r="G11" s="7" t="str">
+      <c r="G11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E6</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="H11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E7</v>
       </c>
-      <c r="I11" s="7" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E8</v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="J11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E9</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="K11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E10</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="L11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E11</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="M11" s="6" t="str">
         <f t="shared" si="9"/>
         <v>E12</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" ht="31" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="6" t="str">
         <f>'96'!B7</f>
         <v>F1</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="6" t="str">
         <f>'96'!C7</f>
         <v>F2</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="6" t="str">
         <f>'96'!D7</f>
         <v>F3</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="6" t="str">
         <f>'96'!E7</f>
         <v>F4</v>
       </c>
-      <c r="F12" s="7" t="str">
+      <c r="F12" s="6" t="str">
         <f>'96'!F7</f>
         <v>F5</v>
       </c>
-      <c r="G12" s="7" t="str">
+      <c r="G12" s="6" t="str">
         <f>'96'!G7</f>
         <v>F6</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="6" t="str">
         <f>'96'!H7</f>
         <v>F7</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="6" t="str">
         <f>'96'!I7</f>
         <v>F8</v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="J12" s="6" t="str">
         <f>'96'!J7</f>
         <v>F9</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="K12" s="6" t="str">
         <f>'96'!K7</f>
         <v>F10</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="L12" s="6" t="str">
         <f>'96'!L7</f>
         <v>F11</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="M12" s="6" t="str">
         <f>'96'!M7</f>
         <v>F12</v>
       </c>
-      <c r="N12" s="7" t="str">
+      <c r="N12" s="6" t="str">
         <f>B12</f>
         <v>F1</v>
       </c>
-      <c r="O12" s="7" t="str">
+      <c r="O12" s="6" t="str">
         <f t="shared" ref="O12:Y12" si="10">C12</f>
         <v>F2</v>
       </c>
-      <c r="P12" s="7" t="str">
+      <c r="P12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F3</v>
       </c>
-      <c r="Q12" s="7" t="str">
+      <c r="Q12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F4</v>
       </c>
-      <c r="R12" s="7" t="str">
+      <c r="R12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F5</v>
       </c>
-      <c r="S12" s="7" t="str">
+      <c r="S12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F6</v>
       </c>
-      <c r="T12" s="7" t="str">
+      <c r="T12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F7</v>
       </c>
-      <c r="U12" s="7" t="str">
+      <c r="U12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F8</v>
       </c>
-      <c r="V12" s="7" t="str">
+      <c r="V12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F9</v>
       </c>
-      <c r="W12" s="7" t="str">
+      <c r="W12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F10</v>
       </c>
-      <c r="X12" s="7" t="str">
+      <c r="X12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F11</v>
       </c>
-      <c r="Y12" s="7" t="str">
+      <c r="Y12" s="6" t="str">
         <f t="shared" si="10"/>
         <v>F12</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="31" customHeight="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="6" t="str">
         <f>B12</f>
         <v>F1</v>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="6" t="str">
         <f t="shared" ref="C13:M13" si="11">C12</f>
         <v>F2</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F3</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F4</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F5</v>
       </c>
-      <c r="G13" s="7" t="str">
+      <c r="G13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F6</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F7</v>
       </c>
-      <c r="I13" s="7" t="str">
+      <c r="I13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F8</v>
       </c>
-      <c r="J13" s="7" t="str">
+      <c r="J13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F9</v>
       </c>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F10</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="L13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F11</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="M13" s="6" t="str">
         <f t="shared" si="11"/>
         <v>F12</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" ht="31" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="6" t="str">
         <f>'96'!B8</f>
         <v>G1</v>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C14" s="6" t="str">
         <f>'96'!C8</f>
         <v>G2</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="6" t="str">
         <f>'96'!D8</f>
         <v>G3</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="6" t="str">
         <f>'96'!E8</f>
         <v>G4</v>
       </c>
-      <c r="F14" s="7" t="str">
+      <c r="F14" s="6" t="str">
         <f>'96'!F8</f>
         <v>G5</v>
       </c>
-      <c r="G14" s="7" t="str">
+      <c r="G14" s="6" t="str">
         <f>'96'!G8</f>
         <v>G6</v>
       </c>
-      <c r="H14" s="7" t="str">
+      <c r="H14" s="6" t="str">
         <f>'96'!H8</f>
         <v>G7</v>
       </c>
-      <c r="I14" s="7" t="str">
+      <c r="I14" s="6" t="str">
         <f>'96'!I8</f>
         <v>G8</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="J14" s="6" t="str">
         <f>'96'!J8</f>
         <v>G9</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="K14" s="6" t="str">
         <f>'96'!K8</f>
         <v>G10</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="L14" s="6" t="str">
         <f>'96'!L8</f>
         <v>G11</v>
       </c>
-      <c r="M14" s="7" t="str">
+      <c r="M14" s="6" t="str">
         <f>'96'!M8</f>
         <v>G12</v>
       </c>
-      <c r="N14" s="7" t="str">
+      <c r="N14" s="6" t="str">
         <f>B14</f>
         <v>G1</v>
       </c>
-      <c r="O14" s="7" t="str">
+      <c r="O14" s="6" t="str">
         <f t="shared" ref="O14:Y14" si="12">C14</f>
         <v>G2</v>
       </c>
-      <c r="P14" s="7" t="str">
+      <c r="P14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G3</v>
       </c>
-      <c r="Q14" s="7" t="str">
+      <c r="Q14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G4</v>
       </c>
-      <c r="R14" s="7" t="str">
+      <c r="R14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G5</v>
       </c>
-      <c r="S14" s="7" t="str">
+      <c r="S14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G6</v>
       </c>
-      <c r="T14" s="7" t="str">
+      <c r="T14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G7</v>
       </c>
-      <c r="U14" s="7" t="str">
+      <c r="U14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G8</v>
       </c>
-      <c r="V14" s="7" t="str">
+      <c r="V14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G9</v>
       </c>
-      <c r="W14" s="7" t="str">
+      <c r="W14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G10</v>
       </c>
-      <c r="X14" s="7" t="str">
+      <c r="X14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G11</v>
       </c>
-      <c r="Y14" s="7" t="str">
+      <c r="Y14" s="6" t="str">
         <f t="shared" si="12"/>
         <v>G12</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="31" customHeight="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="6" t="str">
         <f>B14</f>
         <v>G1</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="6" t="str">
         <f t="shared" ref="C15:M15" si="13">C14</f>
         <v>G2</v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G3</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G4</v>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="F15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G5</v>
       </c>
-      <c r="G15" s="7" t="str">
+      <c r="G15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G6</v>
       </c>
-      <c r="H15" s="7" t="str">
+      <c r="H15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G7</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G8</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="J15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G9</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="K15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G10</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="L15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G11</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="M15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>G12</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" ht="31" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="6" t="str">
         <f>'96'!B9</f>
         <v>H1</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="6" t="str">
         <f>'96'!C9</f>
         <v>H2</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="6" t="str">
         <f>'96'!D9</f>
         <v>H3</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="6" t="str">
         <f>'96'!E9</f>
         <v>H4</v>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="6" t="str">
         <f>'96'!F9</f>
         <v>H5</v>
       </c>
-      <c r="G16" s="7" t="str">
+      <c r="G16" s="6" t="str">
         <f>'96'!G9</f>
         <v>H6</v>
       </c>
-      <c r="H16" s="7" t="str">
+      <c r="H16" s="6" t="str">
         <f>'96'!H9</f>
         <v>H7</v>
       </c>
-      <c r="I16" s="7" t="str">
+      <c r="I16" s="6" t="str">
         <f>'96'!I9</f>
         <v>H8</v>
       </c>
-      <c r="J16" s="7" t="str">
+      <c r="J16" s="6" t="str">
         <f>'96'!J9</f>
         <v>H9</v>
       </c>
-      <c r="K16" s="7" t="str">
+      <c r="K16" s="6" t="str">
         <f>'96'!K9</f>
         <v>H10</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="L16" s="6" t="str">
         <f>'96'!L9</f>
         <v>H11</v>
       </c>
-      <c r="M16" s="7" t="str">
+      <c r="M16" s="6" t="str">
         <f>'96'!M9</f>
         <v>H12</v>
       </c>
-      <c r="N16" s="7" t="str">
+      <c r="N16" s="6" t="str">
         <f>B16</f>
         <v>H1</v>
       </c>
-      <c r="O16" s="7" t="str">
+      <c r="O16" s="6" t="str">
         <f t="shared" ref="O16:X16" si="14">C16</f>
         <v>H2</v>
       </c>
-      <c r="P16" s="7" t="str">
+      <c r="P16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H3</v>
       </c>
-      <c r="Q16" s="7" t="str">
+      <c r="Q16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H4</v>
       </c>
-      <c r="R16" s="7" t="str">
+      <c r="R16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H5</v>
       </c>
-      <c r="S16" s="7" t="str">
+      <c r="S16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H6</v>
       </c>
-      <c r="T16" s="7" t="str">
+      <c r="T16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H7</v>
       </c>
-      <c r="U16" s="7" t="str">
+      <c r="U16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H8</v>
       </c>
-      <c r="V16" s="7" t="str">
+      <c r="V16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H9</v>
       </c>
-      <c r="W16" s="7" t="str">
+      <c r="W16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H10</v>
       </c>
-      <c r="X16" s="7" t="str">
+      <c r="X16" s="6" t="str">
         <f t="shared" si="14"/>
         <v>H11</v>
       </c>
-      <c r="Y16" s="7" t="str">
+      <c r="Y16" s="6" t="str">
         <f>M16</f>
         <v>H12</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="31" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="6" t="str">
         <f>B16</f>
         <v>H1</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="6" t="str">
         <f t="shared" ref="C17:M17" si="15">C16</f>
         <v>H2</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H3</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H4</v>
       </c>
-      <c r="F17" s="7" t="str">
+      <c r="F17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H5</v>
       </c>
-      <c r="G17" s="7" t="str">
+      <c r="G17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H6</v>
       </c>
-      <c r="H17" s="7" t="str">
+      <c r="H17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H7</v>
       </c>
-      <c r="I17" s="7" t="str">
+      <c r="I17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H8</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="J17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H9</v>
       </c>
-      <c r="K17" s="7" t="str">
+      <c r="K17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H10</v>
       </c>
-      <c r="L17" s="7" t="str">
+      <c r="L17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H11</v>
       </c>
-      <c r="M17" s="7" t="str">
+      <c r="M17" s="6" t="str">
         <f t="shared" si="15"/>
         <v>H12</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7" t="s">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="X17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="Y17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3452,4 +3505,1193 @@
     <oddHeader>&amp;C384 Well Plate Layout: _______________________x000D_Date:________________</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56ACFFB-F017-2E41-9CD3-4818AB257DA5}">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="25" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.59" right="0.59" top="0.59" bottom="0.59" header="0.23622047244094491" footer="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;C384 Well Plate Layout: ______________________
+Date:________________</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>